--- a/test_cases/trench_sed_model/fixed_out.xlsx
+++ b/test_cases/trench_sed_model/fixed_out.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/PhD/adapt_utils/test_cases/trench_sed_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EED9E4-BF4C-7947-B4F1-F19D33646F20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B546BA-C394-8641-B021-7E62D462BF24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{725C7163-3F53-304E-91D8-0F93AF696550}"/>
+    <workbookView xWindow="6160" yWindow="1340" windowWidth="25600" windowHeight="15540" xr2:uid="{725C7163-3F53-304E-91D8-0F93AF696550}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="2">
   <si>
     <t>L2 norm:</t>
   </si>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8717AB-231C-5248-9034-069F10AAEF4C}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="118" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,6 +474,9 @@
       <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -503,6 +506,9 @@
       <c r="I3" s="1">
         <v>3.09816586753149E-2</v>
       </c>
+      <c r="J3" s="1">
+        <v>3.09817589138358E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -528,6 +534,9 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -558,6 +567,9 @@
       </c>
       <c r="I5" s="1">
         <v>4381.0954709053003</v>
+      </c>
+      <c r="J5" s="1">
+        <v>49370.255282878803</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -630,6 +642,10 @@
         <f>I3</f>
         <v>3.09816586753149E-2</v>
       </c>
+      <c r="J8" s="2">
+        <f>J3</f>
+        <v>3.09817589138358E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
